--- a/final_data/datasheet copy.xlsx
+++ b/final_data/datasheet copy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudychin/gdrive/cmu/18-743/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afinci/Documents/GitHub/18-743-Power-and-Performance-optimizations-for-DNNs-on-CPU-GPU/final_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,6 +126,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,9 +154,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="K82" sqref="K82"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1640,207 +1648,180 @@
       <c r="B58" t="s">
         <v>1</v>
       </c>
-      <c r="C58">
-        <v>0.24413000000000001</v>
-      </c>
-      <c r="D58">
-        <v>7783.8434208899998</v>
-      </c>
-      <c r="E58">
-        <v>3186.5468214699999</v>
-      </c>
-      <c r="F58">
-        <v>1162.32204035</v>
-      </c>
-      <c r="G58">
-        <v>34.985090724499997</v>
-      </c>
-      <c r="H58">
-        <v>31.260055830500001</v>
+      <c r="D58" s="3">
+        <v>2413.0575115071902</v>
+      </c>
+      <c r="E58" s="3">
+        <v>199.82702477720099</v>
+      </c>
+      <c r="F58" s="3">
+        <v>83.201522867495797</v>
+      </c>
+      <c r="G58" s="3">
+        <v>31.205880912741101</v>
+      </c>
+      <c r="H58" s="3">
+        <v>30.0458084418764</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>2</v>
       </c>
-      <c r="C59">
-        <v>0.24378</v>
-      </c>
-      <c r="D59">
-        <v>7662.5995945599998</v>
-      </c>
-      <c r="E59">
-        <v>3170.4847379100001</v>
-      </c>
-      <c r="F59">
-        <v>1078.05340284</v>
-      </c>
-      <c r="G59">
-        <v>32.095105705199998</v>
-      </c>
-      <c r="H59">
-        <v>28.5165942659</v>
+      <c r="D59" s="3">
+        <v>2388.5905939101599</v>
+      </c>
+      <c r="E59" s="3">
+        <v>189.89051351622899</v>
+      </c>
+      <c r="F59" s="3">
+        <v>71.8923223796603</v>
+      </c>
+      <c r="G59" s="3">
+        <v>30.535900914480901</v>
+      </c>
+      <c r="H59" s="3">
+        <v>29.177042508290601</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>3</v>
       </c>
-      <c r="C60">
-        <v>0.24507999999999999</v>
-      </c>
-      <c r="D60">
-        <v>7665.7052759199996</v>
-      </c>
-      <c r="E60">
-        <v>3192.7050232500001</v>
-      </c>
-      <c r="F60">
-        <v>1080.8362138699999</v>
-      </c>
-      <c r="G60">
-        <v>30.775874267199999</v>
-      </c>
-      <c r="H60">
-        <v>27.256418031100001</v>
+      <c r="D60" s="3">
+        <v>2415.6745326535502</v>
+      </c>
+      <c r="E60" s="3">
+        <v>188.42672978878301</v>
+      </c>
+      <c r="F60" s="3">
+        <v>90.8853848021364</v>
+      </c>
+      <c r="G60" s="3">
+        <v>30.130687059966</v>
+      </c>
+      <c r="H60" s="3">
+        <v>29.096236950716101</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>4</v>
       </c>
-      <c r="C61">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="D61">
-        <v>7766.7514450899998</v>
-      </c>
-      <c r="E61">
-        <v>2841.2932676</v>
-      </c>
-      <c r="F61">
-        <v>1609.33602516</v>
-      </c>
-      <c r="G61">
-        <v>30.133032982</v>
-      </c>
-      <c r="H61">
-        <v>26.658619517199998</v>
+      <c r="D61" s="3">
+        <v>2606.4000610314301</v>
+      </c>
+      <c r="E61" s="3">
+        <v>213.00061031431099</v>
+      </c>
+      <c r="F61" s="3">
+        <v>239.06176380836101</v>
+      </c>
+      <c r="G61" s="3">
+        <v>30.179005187671599</v>
+      </c>
+      <c r="H61" s="3">
+        <v>29.0986267927982</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>5</v>
       </c>
-      <c r="C62">
-        <v>0.21484</v>
-      </c>
-      <c r="D62">
-        <v>9128.6177742799991</v>
-      </c>
-      <c r="E62">
-        <v>3265.6872460300001</v>
-      </c>
-      <c r="F62">
-        <v>2367.7428234399999</v>
-      </c>
-      <c r="G62">
-        <v>30.6505439769</v>
-      </c>
-      <c r="H62">
-        <v>27.2074977061</v>
+      <c r="D62" s="3">
+        <v>2613.6586649952901</v>
+      </c>
+      <c r="E62" s="3">
+        <v>213.25678470698799</v>
+      </c>
+      <c r="F62" s="3">
+        <v>245.35888436226799</v>
+      </c>
+      <c r="G62" s="3">
+        <v>30.1579442181134</v>
+      </c>
+      <c r="H62" s="3">
+        <v>29.047759323096201</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>6</v>
       </c>
-      <c r="C63">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="D63">
-        <v>9128.4330782699999</v>
-      </c>
-      <c r="E63">
-        <v>3246.65861189</v>
-      </c>
-      <c r="F63">
-        <v>2369.9853671599999</v>
-      </c>
-      <c r="G63">
-        <v>30.597395623600001</v>
-      </c>
-      <c r="H63">
-        <v>27.1068599812</v>
+      <c r="D63" s="3">
+        <v>2618.16640756171</v>
+      </c>
+      <c r="E63" s="3">
+        <v>212.66880169143701</v>
+      </c>
+      <c r="F63" s="3">
+        <v>249.48448479572099</v>
+      </c>
+      <c r="G63" s="3">
+        <v>30.151980598221499</v>
+      </c>
+      <c r="H63" s="3">
+        <v>29.142652820098199</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" t="s">
         <v>7</v>
       </c>
-      <c r="C64">
-        <v>0.12595000000000001</v>
-      </c>
-      <c r="D64">
-        <v>5496.6339557499996</v>
-      </c>
-      <c r="E64">
-        <v>1794.9918565400001</v>
-      </c>
-      <c r="F64">
-        <v>707.145430616</v>
-      </c>
-      <c r="G64">
-        <v>28.113514847400001</v>
-      </c>
-      <c r="H64">
-        <v>25.5164102986</v>
+      <c r="D64" s="3">
+        <v>2443.4919165301599</v>
+      </c>
+      <c r="E64" s="3">
+        <v>218.549533509009</v>
+      </c>
+      <c r="F64" s="3">
+        <v>109.089096218218</v>
+      </c>
+      <c r="G64" s="3">
+        <v>30.044726159105402</v>
+      </c>
+      <c r="H64" s="3">
+        <v>29.003204899935898</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B65" t="s">
         <v>8</v>
       </c>
-      <c r="C65">
-        <v>0.12747</v>
-      </c>
-      <c r="D65">
-        <v>8262.97615176</v>
-      </c>
-      <c r="E65">
-        <v>3361.0545618800002</v>
-      </c>
-      <c r="F65">
-        <v>1508.5627822900001</v>
-      </c>
-      <c r="G65">
-        <v>29.698464317999999</v>
-      </c>
-      <c r="H65">
-        <v>26.084010840099999</v>
+      <c r="D65" s="3">
+        <v>2449.8225366644501</v>
+      </c>
+      <c r="E65" s="3">
+        <v>220.875082909573</v>
+      </c>
+      <c r="F65" s="3">
+        <v>110.777433856584</v>
+      </c>
+      <c r="G65" s="3">
+        <v>30.012381162944902</v>
+      </c>
+      <c r="H65" s="3">
+        <v>28.977080109072102</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
         <v>9</v>
       </c>
-      <c r="C66">
-        <v>0.12922</v>
-      </c>
-      <c r="D66">
-        <v>7894.4045315699996</v>
-      </c>
-      <c r="E66">
-        <v>3380.8701629299999</v>
-      </c>
-      <c r="F66">
-        <v>1190.9994908399999</v>
-      </c>
-      <c r="G66">
-        <v>29.624363543800001</v>
-      </c>
-      <c r="H66">
-        <v>25.858579429700001</v>
+      <c r="D66" s="3">
+        <v>2450.4608521079599</v>
+      </c>
+      <c r="E66" s="3">
+        <v>220.01501970406699</v>
+      </c>
+      <c r="F66" s="3">
+        <v>112.469402929585</v>
+      </c>
+      <c r="G66" s="3">
+        <v>30.0175477730686</v>
+      </c>
+      <c r="H66" s="3">
+        <v>28.953379433415101</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.2">
@@ -1873,207 +1854,180 @@
       <c r="B69" t="s">
         <v>1</v>
       </c>
-      <c r="C69">
-        <v>0.24413000000000001</v>
-      </c>
-      <c r="D69">
-        <v>7783.8434208899998</v>
-      </c>
-      <c r="E69">
-        <v>3186.5468214699999</v>
-      </c>
-      <c r="F69">
-        <v>1162.32204035</v>
-      </c>
-      <c r="G69">
-        <v>34.985090724499997</v>
-      </c>
-      <c r="H69">
-        <v>31.260055830500001</v>
+      <c r="D69" s="3">
+        <v>7111.1899757050796</v>
+      </c>
+      <c r="E69" s="3">
+        <v>2679.5778493715002</v>
+      </c>
+      <c r="F69" s="3">
+        <v>1047.5571458751399</v>
+      </c>
+      <c r="G69" s="3">
+        <v>34.164624485053302</v>
+      </c>
+      <c r="H69" s="3">
+        <v>30.048325763177299</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
         <v>2</v>
       </c>
-      <c r="C70">
-        <v>0.24378</v>
-      </c>
-      <c r="D70">
-        <v>7662.5995945599998</v>
-      </c>
-      <c r="E70">
-        <v>3170.4847379100001</v>
-      </c>
-      <c r="F70">
-        <v>1078.05340284</v>
-      </c>
-      <c r="G70">
-        <v>32.095105705199998</v>
-      </c>
-      <c r="H70">
-        <v>28.5165942659</v>
+      <c r="D70" s="3">
+        <v>6870.1219500549096</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2494.6902545003099</v>
+      </c>
+      <c r="F70" s="3">
+        <v>1036.2874468796199</v>
+      </c>
+      <c r="G70" s="3">
+        <v>35.412500596858102</v>
+      </c>
+      <c r="H70" s="3">
+        <v>31.261996848589</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B71" t="s">
         <v>3</v>
       </c>
-      <c r="C71">
-        <v>0.24507999999999999</v>
-      </c>
-      <c r="D71">
-        <v>7665.7052759199996</v>
-      </c>
-      <c r="E71">
-        <v>3192.7050232500001</v>
-      </c>
-      <c r="F71">
-        <v>1080.8362138699999</v>
-      </c>
-      <c r="G71">
-        <v>30.775874267199999</v>
-      </c>
-      <c r="H71">
-        <v>27.256418031100001</v>
+      <c r="D71" s="3">
+        <v>6904.3119057461699</v>
+      </c>
+      <c r="E71" s="3">
+        <v>2564.6178689541098</v>
+      </c>
+      <c r="F71" s="3">
+        <v>1021.04702356345</v>
+      </c>
+      <c r="G71" s="3">
+        <v>36.107482430756498</v>
+      </c>
+      <c r="H71" s="3">
+        <v>31.956490285241799</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B72" t="s">
         <v>4</v>
       </c>
-      <c r="C72">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="D72">
-        <v>7766.7514450899998</v>
-      </c>
-      <c r="E72">
-        <v>2841.2932676</v>
-      </c>
-      <c r="F72">
-        <v>1609.33602516</v>
-      </c>
-      <c r="G72">
-        <v>30.133032982</v>
-      </c>
-      <c r="H72">
-        <v>26.658619517199998</v>
+      <c r="D72" s="3">
+        <v>6902.5209451341598</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2357.6151381657901</v>
+      </c>
+      <c r="F72" s="3">
+        <v>1189.0208249899799</v>
+      </c>
+      <c r="G72" s="3">
+        <v>37.0470965158189</v>
+      </c>
+      <c r="H72" s="3">
+        <v>32.765879054865799</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B73" t="s">
         <v>5</v>
       </c>
-      <c r="C73">
-        <v>0.21484</v>
-      </c>
-      <c r="D73">
-        <v>9128.6177742799991</v>
-      </c>
-      <c r="E73">
-        <v>3265.6872460300001</v>
-      </c>
-      <c r="F73">
-        <v>2367.7428234399999</v>
-      </c>
-      <c r="G73">
-        <v>30.6505439769</v>
-      </c>
-      <c r="H73">
-        <v>27.2074977061</v>
+      <c r="D73" s="3">
+        <v>7539.4189965903497</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2654.1552849488498</v>
+      </c>
+      <c r="F73" s="3">
+        <v>1445.67959084266</v>
+      </c>
+      <c r="G73" s="3">
+        <v>37.501022893326798</v>
+      </c>
+      <c r="H73" s="3">
+        <v>33.549829517778797</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B74" t="s">
         <v>6</v>
       </c>
-      <c r="C74">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="D74">
-        <v>9128.4330782699999</v>
-      </c>
-      <c r="E74">
-        <v>3246.65861189</v>
-      </c>
-      <c r="F74">
-        <v>2369.9853671599999</v>
-      </c>
-      <c r="G74">
-        <v>30.597395623600001</v>
-      </c>
-      <c r="H74">
-        <v>27.1068599812</v>
+      <c r="D74" s="3">
+        <v>7570.7231898238697</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2655.9171232876702</v>
+      </c>
+      <c r="F74" s="3">
+        <v>1452.0159491193699</v>
+      </c>
+      <c r="G74" s="3">
+        <v>37.526320939334603</v>
+      </c>
+      <c r="H74" s="3">
+        <v>33.602641878669203</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B75" t="s">
         <v>7</v>
       </c>
-      <c r="C75">
-        <v>0.12595000000000001</v>
-      </c>
-      <c r="D75">
-        <v>5496.6339557499996</v>
-      </c>
-      <c r="E75">
-        <v>1794.9918565400001</v>
-      </c>
-      <c r="F75">
-        <v>707.145430616</v>
-      </c>
-      <c r="G75">
-        <v>28.113514847400001</v>
-      </c>
-      <c r="H75">
-        <v>25.5164102986</v>
+      <c r="D75" s="3">
+        <v>6171.3573221757297</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2079.29644351464</v>
+      </c>
+      <c r="F75" s="3">
+        <v>939.12845188284496</v>
+      </c>
+      <c r="G75" s="3">
+        <v>36.994769874476901</v>
+      </c>
+      <c r="H75" s="3">
+        <v>33.035564853556401</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
         <v>8</v>
       </c>
-      <c r="C76">
-        <v>0.12747</v>
-      </c>
-      <c r="D76">
-        <v>8262.97615176</v>
-      </c>
-      <c r="E76">
-        <v>3361.0545618800002</v>
-      </c>
-      <c r="F76">
-        <v>1508.5627822900001</v>
-      </c>
-      <c r="G76">
-        <v>29.698464317999999</v>
-      </c>
-      <c r="H76">
-        <v>26.084010840099999</v>
+      <c r="D76" s="3">
+        <v>7538.6408225437899</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2854.3501904036498</v>
+      </c>
+      <c r="F76" s="3">
+        <v>1340.8651942117201</v>
+      </c>
+      <c r="G76" s="3">
+        <v>38.111652703731899</v>
+      </c>
+      <c r="H76" s="3">
+        <v>33.6516374714394</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77">
-        <v>0.12922</v>
-      </c>
-      <c r="D77">
-        <v>7894.4045315699996</v>
-      </c>
-      <c r="E77">
-        <v>3380.8701629299999</v>
-      </c>
-      <c r="F77">
-        <v>1190.9994908399999</v>
-      </c>
-      <c r="G77">
-        <v>29.624363543800001</v>
-      </c>
-      <c r="H77">
-        <v>25.858579429700001</v>
+      <c r="D77" s="3">
+        <v>7586.2553091817599</v>
+      </c>
+      <c r="E77" s="3">
+        <v>2863.0941599000598</v>
+      </c>
+      <c r="F77" s="3">
+        <v>1386.5913491567701</v>
+      </c>
+      <c r="G77" s="3">
+        <v>38.301061836352197</v>
+      </c>
+      <c r="H77" s="3">
+        <v>33.953622735790098</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.2">
@@ -2106,208 +2060,188 @@
       <c r="B80" t="s">
         <v>1</v>
       </c>
-      <c r="C80">
-        <v>0.24413000000000001</v>
-      </c>
-      <c r="D80">
-        <v>7783.8434208899998</v>
-      </c>
-      <c r="E80">
-        <v>3186.5468214699999</v>
-      </c>
-      <c r="F80">
-        <v>1162.32204035</v>
-      </c>
-      <c r="G80">
-        <v>34.985090724499997</v>
-      </c>
-      <c r="H80">
-        <v>31.260055830500001</v>
+      <c r="D80" s="3">
+        <v>4333.7765316018003</v>
+      </c>
+      <c r="E80" s="3">
+        <v>1035.8960661129099</v>
+      </c>
+      <c r="F80" s="3">
+        <v>611.956908546612</v>
+      </c>
+      <c r="G80" s="3">
+        <v>35.537926381920101</v>
+      </c>
+      <c r="H80" s="3">
+        <v>32.643588986802698</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B81" t="s">
         <v>2</v>
       </c>
-      <c r="C81">
-        <v>0.24378</v>
-      </c>
-      <c r="D81">
-        <v>7662.5995945599998</v>
-      </c>
-      <c r="E81">
-        <v>3170.4847379100001</v>
-      </c>
-      <c r="F81">
-        <v>1078.05340284</v>
-      </c>
-      <c r="G81">
-        <v>32.095105705199998</v>
-      </c>
-      <c r="H81">
-        <v>28.5165942659</v>
+      <c r="D81" s="3">
+        <v>4297.6084279712104</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1013.2583302134</v>
+      </c>
+      <c r="F81" s="3">
+        <v>599.92620325304699</v>
+      </c>
+      <c r="G81" s="3">
+        <v>35.4139107283996</v>
+      </c>
+      <c r="H81" s="3">
+        <v>32.538999126419498</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B82" t="s">
         <v>3</v>
       </c>
-      <c r="C82">
-        <v>0.24507999999999999</v>
-      </c>
-      <c r="D82">
-        <v>7665.7052759199996</v>
-      </c>
-      <c r="E82">
-        <v>3192.7050232500001</v>
-      </c>
-      <c r="F82">
-        <v>1080.8362138699999</v>
-      </c>
-      <c r="G82">
-        <v>30.775874267199999</v>
-      </c>
-      <c r="H82">
-        <v>27.256418031100001</v>
+      <c r="D82" s="3">
+        <v>4378.5333522911897</v>
+      </c>
+      <c r="E82" s="3">
+        <v>1020.71356028599</v>
+      </c>
+      <c r="F82" s="3">
+        <v>649.80272993175095</v>
+      </c>
+      <c r="G82" s="3">
+        <v>35.416639584010397</v>
+      </c>
+      <c r="H82" s="3">
+        <v>32.540745856353503</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B83" t="s">
         <v>4</v>
       </c>
-      <c r="C83">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="D83">
-        <v>7766.7514450899998</v>
-      </c>
-      <c r="E83">
-        <v>2841.2932676</v>
-      </c>
-      <c r="F83">
-        <v>1609.33602516</v>
-      </c>
-      <c r="G83">
-        <v>30.133032982</v>
-      </c>
-      <c r="H83">
-        <v>26.658619517199998</v>
+      <c r="D83" s="3">
+        <v>4982.2253820702599</v>
+      </c>
+      <c r="E83" s="3">
+        <v>977.37419253190399</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1194.70765716086</v>
+      </c>
+      <c r="G83" s="3">
+        <v>35.423901055616803</v>
+      </c>
+      <c r="H83" s="3">
+        <v>32.769654955096897</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B84" t="s">
         <v>5</v>
       </c>
-      <c r="C84">
-        <v>0.21484</v>
-      </c>
-      <c r="D84">
-        <v>9128.6177742799991</v>
-      </c>
-      <c r="E84">
-        <v>3265.6872460300001</v>
-      </c>
-      <c r="F84">
-        <v>2367.7428234399999</v>
-      </c>
-      <c r="G84">
-        <v>30.6505439769</v>
-      </c>
-      <c r="H84">
-        <v>27.2074977061</v>
+      <c r="D84" s="3">
+        <v>5372.5833628632099</v>
+      </c>
+      <c r="E84" s="3">
+        <v>1052.42611622962</v>
+      </c>
+      <c r="F84" s="3">
+        <v>1454.30855776045</v>
+      </c>
+      <c r="G84" s="3">
+        <v>35.290219702338703</v>
+      </c>
+      <c r="H84" s="3">
+        <v>32.571491849751901</v>
       </c>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
         <v>6</v>
       </c>
-      <c r="C85">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="D85">
-        <v>9128.4330782699999</v>
-      </c>
-      <c r="E85">
-        <v>3246.65861189</v>
-      </c>
-      <c r="F85">
-        <v>2369.9853671599999</v>
-      </c>
-      <c r="G85">
-        <v>30.597395623600001</v>
-      </c>
-      <c r="H85">
-        <v>27.1068599812</v>
+      <c r="D85" s="3">
+        <v>5385.29922992299</v>
+      </c>
+      <c r="E85" s="3">
+        <v>1059.8865053171901</v>
+      </c>
+      <c r="F85" s="3">
+        <v>1440.19077741107</v>
+      </c>
+      <c r="G85" s="3">
+        <v>35.384305097176302</v>
+      </c>
+      <c r="H85" s="3">
+        <v>32.474147414741402</v>
       </c>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
         <v>7</v>
       </c>
-      <c r="C86">
-        <v>0.12595000000000001</v>
-      </c>
-      <c r="D86">
-        <v>5496.6339557499996</v>
-      </c>
-      <c r="E86">
-        <v>1794.9918565400001</v>
-      </c>
-      <c r="F86">
-        <v>707.145430616</v>
-      </c>
-      <c r="G86">
-        <v>28.113514847400001</v>
-      </c>
-      <c r="H86">
-        <v>25.5164102986</v>
+      <c r="D86" s="3">
+        <v>4215.4651292542303</v>
+      </c>
+      <c r="E86" s="3">
+        <v>972.90366375302199</v>
+      </c>
+      <c r="F86" s="3">
+        <v>587.492188952947</v>
+      </c>
+      <c r="G86" s="3">
+        <v>34.550120885251999</v>
+      </c>
+      <c r="H86" s="3">
+        <v>31.562581365073399</v>
       </c>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
         <v>8</v>
       </c>
-      <c r="C87">
-        <v>0.12747</v>
-      </c>
-      <c r="D87">
-        <v>8262.97615176</v>
-      </c>
-      <c r="E87">
-        <v>3361.0545618800002</v>
-      </c>
-      <c r="F87">
-        <v>1508.5627822900001</v>
-      </c>
-      <c r="G87">
-        <v>29.698464317999999</v>
-      </c>
-      <c r="H87">
-        <v>26.084010840099999</v>
+      <c r="D87" s="3">
+        <v>4441.1764194984198</v>
+      </c>
+      <c r="E87" s="3">
+        <v>1077.04581478666</v>
+      </c>
+      <c r="F87" s="3">
+        <v>638.00987949191097</v>
+      </c>
+      <c r="G87" s="3">
+        <v>34.446205623710703</v>
+      </c>
+      <c r="H87" s="3">
+        <v>31.540440777331401</v>
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
         <v>9</v>
       </c>
-      <c r="C88">
-        <v>0.12922</v>
-      </c>
-      <c r="D88">
-        <v>7894.4045315699996</v>
-      </c>
-      <c r="E88">
-        <v>3380.8701629299999</v>
-      </c>
-      <c r="F88">
-        <v>1190.9994908399999</v>
-      </c>
-      <c r="G88">
-        <v>29.624363543800001</v>
-      </c>
-      <c r="H88">
-        <v>25.858579429700001</v>
-      </c>
+      <c r="D88" s="3">
+        <v>4468.9786476868303</v>
+      </c>
+      <c r="E88" s="3">
+        <v>1086.5231316725899</v>
+      </c>
+      <c r="F88" s="3">
+        <v>641.39915049936803</v>
+      </c>
+      <c r="G88" s="3">
+        <v>34.305016645620398</v>
+      </c>
+      <c r="H88" s="3">
+        <v>31.429571805762802</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B90" s="1" t="s">
@@ -2339,210 +2273,184 @@
       <c r="B91" t="s">
         <v>1</v>
       </c>
-      <c r="C91">
-        <v>0.24413000000000001</v>
-      </c>
-      <c r="D91">
-        <v>7783.8434208899998</v>
-      </c>
-      <c r="E91">
-        <v>3186.5468214699999</v>
-      </c>
-      <c r="F91">
-        <v>1162.32204035</v>
-      </c>
-      <c r="G91">
-        <v>34.985090724499997</v>
-      </c>
-      <c r="H91">
-        <v>31.260055830500001</v>
+      <c r="D91" s="2">
+        <v>2395.82186131758</v>
+      </c>
+      <c r="E91" s="2">
+        <v>184.57305773342799</v>
+      </c>
+      <c r="F91" s="2">
+        <v>78.0214845738723</v>
+      </c>
+      <c r="G91" s="2">
+        <v>31.194786681600601</v>
+      </c>
+      <c r="H91" s="2">
+        <v>29.808598920680101</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
         <v>2</v>
       </c>
-      <c r="C92">
-        <v>0.24378</v>
-      </c>
-      <c r="D92">
-        <v>7662.5995945599998</v>
-      </c>
-      <c r="E92">
-        <v>3170.4847379100001</v>
-      </c>
-      <c r="F92">
-        <v>1078.05340284</v>
-      </c>
-      <c r="G92">
-        <v>32.095105705199998</v>
-      </c>
-      <c r="H92">
-        <v>28.5165942659</v>
+      <c r="D92" s="2">
+        <v>2389.1733553992499</v>
+      </c>
+      <c r="E92" s="2">
+        <v>178.311859621796</v>
+      </c>
+      <c r="F92" s="2">
+        <v>77.659933315485901</v>
+      </c>
+      <c r="G92" s="2">
+        <v>30.548200248241599</v>
+      </c>
+      <c r="H92" s="2">
+        <v>29.120178149869702</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
         <v>3</v>
       </c>
-      <c r="C93">
-        <v>0.24507999999999999</v>
-      </c>
-      <c r="D93">
-        <v>7665.7052759199996</v>
-      </c>
-      <c r="E93">
-        <v>3192.7050232500001</v>
-      </c>
-      <c r="F93">
-        <v>1080.8362138699999</v>
-      </c>
-      <c r="G93">
-        <v>30.775874267199999</v>
-      </c>
-      <c r="H93">
-        <v>27.256418031100001</v>
+      <c r="D93" s="2">
+        <v>2396.2826494168098</v>
+      </c>
+      <c r="E93" s="2">
+        <v>177.473688154049</v>
+      </c>
+      <c r="F93" s="2">
+        <v>85.0319188790928</v>
+      </c>
+      <c r="G93" s="2">
+        <v>30.160643372711601</v>
+      </c>
+      <c r="H93" s="2">
+        <v>28.976223182397099</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B94" t="s">
         <v>4</v>
       </c>
-      <c r="C94">
-        <v>0.21609999999999999</v>
-      </c>
-      <c r="D94">
-        <v>7766.7514450899998</v>
-      </c>
-      <c r="E94">
-        <v>2841.2932676</v>
-      </c>
-      <c r="F94">
-        <v>1609.33602516</v>
-      </c>
-      <c r="G94">
-        <v>30.133032982</v>
-      </c>
-      <c r="H94">
-        <v>26.658619517199998</v>
+      <c r="D94" s="2">
+        <v>2598.3656650183798</v>
+      </c>
+      <c r="E94" s="2">
+        <v>197.59604412324001</v>
+      </c>
+      <c r="F94" s="2">
+        <v>240.74812983390299</v>
+      </c>
+      <c r="G94" s="2">
+        <v>30.260365157854601</v>
+      </c>
+      <c r="H94" s="2">
+        <v>29.0952833777101</v>
       </c>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B95" t="s">
         <v>5</v>
       </c>
-      <c r="C95">
-        <v>0.21484</v>
-      </c>
-      <c r="D95">
-        <v>9128.6177742799991</v>
-      </c>
-      <c r="E95">
-        <v>3265.6872460300001</v>
-      </c>
-      <c r="F95">
-        <v>2367.7428234399999</v>
-      </c>
-      <c r="G95">
-        <v>30.6505439769</v>
-      </c>
-      <c r="H95">
-        <v>27.2074977061</v>
+      <c r="D95" s="2">
+        <v>2541.8414855072401</v>
+      </c>
+      <c r="E95" s="2">
+        <v>198.31554089026901</v>
+      </c>
+      <c r="F95" s="2">
+        <v>198.66776656314701</v>
+      </c>
+      <c r="G95" s="2">
+        <v>30.175530538302201</v>
+      </c>
+      <c r="H95" s="2">
+        <v>29.1418866459627</v>
       </c>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
         <v>6</v>
       </c>
-      <c r="C96">
-        <v>0.21629999999999999</v>
-      </c>
-      <c r="D96">
-        <v>9128.4330782699999</v>
-      </c>
-      <c r="E96">
-        <v>3246.65861189</v>
-      </c>
-      <c r="F96">
-        <v>2369.9853671599999</v>
-      </c>
-      <c r="G96">
-        <v>30.597395623600001</v>
-      </c>
-      <c r="H96">
-        <v>27.1068599812</v>
+      <c r="D96" s="2">
+        <v>2543.9661277391701</v>
+      </c>
+      <c r="E96" s="2">
+        <v>195.99184927845999</v>
+      </c>
+      <c r="F96" s="2">
+        <v>198.71392303580899</v>
+      </c>
+      <c r="G96" s="2">
+        <v>30.162079102084402</v>
+      </c>
+      <c r="H96" s="2">
+        <v>29.0699492250133</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
         <v>7</v>
       </c>
-      <c r="C97">
-        <v>0.12595000000000001</v>
-      </c>
-      <c r="D97">
-        <v>5496.6339557499996</v>
-      </c>
-      <c r="E97">
-        <v>1794.9918565400001</v>
-      </c>
-      <c r="F97">
-        <v>707.145430616</v>
-      </c>
-      <c r="G97">
-        <v>28.113514847400001</v>
-      </c>
-      <c r="H97">
-        <v>25.5164102986</v>
+      <c r="D97" s="2">
+        <v>2440.9056038983599</v>
+      </c>
+      <c r="E97" s="2">
+        <v>205.219561434041</v>
+      </c>
+      <c r="F97" s="2">
+        <v>113.175565610859</v>
+      </c>
+      <c r="G97" s="2">
+        <v>30.0329272537417</v>
+      </c>
+      <c r="H97" s="2">
+        <v>28.956561085972801</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
         <v>8</v>
       </c>
-      <c r="C98">
-        <v>0.12747</v>
-      </c>
-      <c r="D98">
-        <v>8262.97615176</v>
-      </c>
-      <c r="E98">
-        <v>3361.0545618800002</v>
-      </c>
-      <c r="F98">
-        <v>1508.5627822900001</v>
-      </c>
-      <c r="G98">
-        <v>29.698464317999999</v>
-      </c>
-      <c r="H98">
-        <v>26.084010840099999</v>
+      <c r="D98" s="2">
+        <v>2429.73151034287</v>
+      </c>
+      <c r="E98" s="2">
+        <v>205.16973646925399</v>
+      </c>
+      <c r="F98" s="2">
+        <v>108.730943610087</v>
+      </c>
+      <c r="G98" s="2">
+        <v>30.0143100028336</v>
+      </c>
+      <c r="H98" s="2">
+        <v>28.7699064890903</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
         <v>9</v>
       </c>
-      <c r="C99">
-        <v>0.12922</v>
-      </c>
-      <c r="D99">
-        <v>7894.4045315699996</v>
-      </c>
-      <c r="E99">
-        <v>3380.8701629299999</v>
-      </c>
-      <c r="F99">
-        <v>1190.9994908399999</v>
-      </c>
-      <c r="G99">
-        <v>29.624363543800001</v>
-      </c>
-      <c r="H99">
-        <v>25.858579429700001</v>
+      <c r="D99" s="2">
+        <v>2436.7510988601598</v>
+      </c>
+      <c r="E99" s="2">
+        <v>202.41928033971499</v>
+      </c>
+      <c r="F99" s="2">
+        <v>110.945243239216</v>
+      </c>
+      <c r="G99" s="2">
+        <v>29.9954555613499</v>
+      </c>
+      <c r="H99" s="2">
+        <v>28.694777620502101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>